--- a/data/pc_members.xlsx
+++ b/data/pc_members.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jianke\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jianke\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4038CC9E-D2B8-48CB-BE6E-7845955DF3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8BBF3F-8D1B-4C8F-92B1-FEC204BD7E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="334">
   <si>
     <t>Lu</t>
   </si>
@@ -1027,9 +1027,6 @@
   </si>
   <si>
     <t>Leibniz Universität Hannover</t>
-  </si>
-  <si>
-    <t>Zimu</t>
   </si>
 </sst>
 </file>
@@ -1682,8 +1679,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3926,19 +3923,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="30.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="125" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="8"/>
     </row>
@@ -4077,7 +4066,82 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId128" name="Control 1">
+        <control shapeId="1028" r:id="rId128" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId129">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>254000</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId128" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId130" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId129">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>254000</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId130" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId131" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId129">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>254000</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId131" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId132" name="Control 1">
           <controlPr defaultSize="0" r:id="rId129">
             <anchor moveWithCells="1">
               <from>
@@ -4097,82 +4161,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId128" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId130" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId129">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>254000</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId130" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId131" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId129">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>254000</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId131" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId132" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId129">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>254000</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId132" name="Control 4"/>
+        <control shapeId="1025" r:id="rId132" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/data/pc_members.xlsx
+++ b/data/pc_members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jianke\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8BBF3F-8D1B-4C8F-92B1-FEC204BD7E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637AF343-03AC-41D4-A4A4-95EDEBFF3020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="335">
   <si>
     <t>Lu</t>
   </si>
@@ -1027,6 +1027,9 @@
   </si>
   <si>
     <t>Leibniz Universität Hannover</t>
+  </si>
+  <si>
+    <t>Zimu</t>
   </si>
 </sst>
 </file>
@@ -3923,11 +3926,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
+    <row r="125" spans="1:6" ht="30.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E125" s="7"/>
       <c r="F125" s="8"/>
     </row>

--- a/data/pc_members.xlsx
+++ b/data/pc_members.xlsx
@@ -1,37 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peilunyang/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F418330-F135-E643-B5E1-4249A20C61C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{99443BCA-A551-4647-B8E2-6BDFD8F93735}"/>
+    <workbookView windowWidth="24930" windowHeight="10130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1013,39 +991,374 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF282828"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1053,28 +1366,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1123,7 +1718,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1156,26 +1751,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1208,23 +1786,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1366,31 +1927,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F042FB-2175-7F40-A2C5-71902892E189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="66.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.6615384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" ht="17.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1960,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" ht="17.5" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1418,7 +1974,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" ht="17.5" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1432,7 +1988,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" ht="17.5" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1446,7 +2002,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" ht="17.5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1460,7 +2016,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" ht="17.5" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1474,7 +2030,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" ht="17.5" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1488,7 +2044,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" ht="17.5" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,7 +2058,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" ht="17.5" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +2072,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" ht="17.5" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1530,7 +2086,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" ht="17.5" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1544,7 +2100,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" ht="17.5" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1558,7 +2114,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" ht="17.5" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1572,7 +2128,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" ht="17.5" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1586,7 +2142,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" ht="17.5" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1600,7 +2156,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" ht="17.5" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1614,7 +2170,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" ht="17.5" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1628,7 +2184,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" ht="17.5" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1642,7 +2198,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" ht="17.5" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1656,7 +2212,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" ht="17.5" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1670,7 +2226,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" ht="17.5" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -1684,7 +2240,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" ht="17.5" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -1698,7 +2254,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" ht="17.5" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -1712,7 +2268,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" ht="17.5" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -1726,7 +2282,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" ht="17.5" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -1740,7 +2296,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" ht="17.5" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -1754,7 +2310,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" ht="17.5" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -1768,7 +2324,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" ht="17.5" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -1782,7 +2338,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" ht="17.5" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -1796,7 +2352,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" ht="17.5" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -1810,7 +2366,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" ht="17.5" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -1824,7 +2380,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" ht="17.5" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
@@ -1838,7 +2394,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" ht="17.5" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
@@ -1852,7 +2408,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" ht="17.5" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
@@ -1866,7 +2422,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" ht="17.5" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
@@ -1880,7 +2436,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" ht="17.5" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>99</v>
       </c>
@@ -1894,7 +2450,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" ht="17.5" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>101</v>
       </c>
@@ -1908,7 +2464,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" ht="17.5" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
@@ -1922,7 +2478,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" ht="17.5" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
@@ -1936,7 +2492,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" ht="17.5" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>110</v>
       </c>
@@ -1950,7 +2506,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" ht="17.5" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
@@ -1964,7 +2520,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" ht="17.5" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>116</v>
       </c>
@@ -1978,7 +2534,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" ht="17.5" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>118</v>
       </c>
@@ -1992,7 +2548,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" ht="17.5" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>121</v>
       </c>
@@ -2006,7 +2562,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" ht="17.5" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>124</v>
       </c>
@@ -2020,7 +2576,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" ht="17.5" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>127</v>
       </c>
@@ -2034,7 +2590,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" ht="17.5" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>130</v>
       </c>
@@ -2048,7 +2604,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" ht="17.5" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>132</v>
       </c>
@@ -2062,7 +2618,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" ht="17.5" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>133</v>
       </c>
@@ -2076,7 +2632,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" ht="17.5" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>136</v>
       </c>
@@ -2090,7 +2646,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" ht="17.5" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>139</v>
       </c>
@@ -2104,7 +2660,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" ht="17.5" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>141</v>
       </c>
@@ -2118,7 +2674,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" ht="17.5" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>143</v>
       </c>
@@ -2132,7 +2688,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" ht="17.5" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>145</v>
       </c>
@@ -2146,7 +2702,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" ht="17.5" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>147</v>
       </c>
@@ -2160,7 +2716,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" ht="17.5" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>149</v>
       </c>
@@ -2174,7 +2730,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" ht="17.5" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>152</v>
       </c>
@@ -2188,7 +2744,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" ht="17.5" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>155</v>
       </c>
@@ -2202,7 +2758,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" ht="17.5" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>158</v>
       </c>
@@ -2216,7 +2772,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="60" ht="17.5" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>161</v>
       </c>
@@ -2230,7 +2786,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="61" ht="17.5" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>164</v>
       </c>
@@ -2244,7 +2800,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" ht="17.5" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>167</v>
       </c>
@@ -2258,7 +2814,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" ht="17.5" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>169</v>
       </c>
@@ -2272,7 +2828,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" ht="17.5" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>172</v>
       </c>
@@ -2286,7 +2842,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" ht="17.5" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>175</v>
       </c>
@@ -2300,7 +2856,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" ht="17.5" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>178</v>
       </c>
@@ -2314,7 +2870,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" ht="17.5" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>178</v>
       </c>
@@ -2328,7 +2884,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" ht="17.5" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>178</v>
       </c>
@@ -2342,7 +2898,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="69" ht="17.5" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>184</v>
       </c>
@@ -2356,7 +2912,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" ht="17.5" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>187</v>
       </c>
@@ -2370,7 +2926,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" ht="17.5" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>190</v>
       </c>
@@ -2384,7 +2940,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" ht="17.5" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>193</v>
       </c>
@@ -2398,7 +2954,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" ht="17.5" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>195</v>
       </c>
@@ -2412,7 +2968,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="74" ht="17.5" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>197</v>
       </c>
@@ -2426,7 +2982,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="75" ht="17.5" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>200</v>
       </c>
@@ -2440,7 +2996,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" ht="17.5" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>200</v>
       </c>
@@ -2454,7 +3010,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="77" ht="17.5" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>205</v>
       </c>
@@ -2468,7 +3024,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="78" ht="17.5" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>207</v>
       </c>
@@ -2482,7 +3038,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="79" ht="17.5" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>210</v>
       </c>
@@ -2496,7 +3052,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="80" ht="17.5" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>213</v>
       </c>
@@ -2510,7 +3066,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" ht="17.5" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>216</v>
       </c>
@@ -2524,7 +3080,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="82" ht="17.5" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>218</v>
       </c>
@@ -2538,7 +3094,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="83" ht="17.5" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>221</v>
       </c>
@@ -2552,7 +3108,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="84" ht="17.5" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>223</v>
       </c>
@@ -2566,7 +3122,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="85" ht="17.5" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>226</v>
       </c>
@@ -2580,7 +3136,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="86" ht="17.5" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>228</v>
       </c>
@@ -2594,7 +3150,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="87" ht="17.5" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>231</v>
       </c>
@@ -2608,7 +3164,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="88" ht="17.5" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>232</v>
       </c>
@@ -2622,7 +3178,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="89" ht="17.5" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>232</v>
       </c>
@@ -2636,7 +3192,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="90" ht="17.5" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>235</v>
       </c>
@@ -2650,7 +3206,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="91" ht="17.5" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>238</v>
       </c>
@@ -2664,7 +3220,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="92" ht="17.5" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>241</v>
       </c>
@@ -2678,7 +3234,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="93" ht="17.5" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>243</v>
       </c>
@@ -2692,7 +3248,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="94" ht="17.5" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>245</v>
       </c>
@@ -2706,7 +3262,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="95" ht="17.5" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>248</v>
       </c>
@@ -2720,7 +3276,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="96" ht="17.5" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>251</v>
       </c>
@@ -2734,7 +3290,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="97" ht="17.5" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>254</v>
       </c>
@@ -2748,7 +3304,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="98" ht="17.5" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>257</v>
       </c>
@@ -2762,7 +3318,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="99" ht="17.5" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>260</v>
       </c>
@@ -2776,7 +3332,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="100" ht="17.5" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>263</v>
       </c>
@@ -2790,7 +3346,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="101" ht="17.5" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>266</v>
       </c>
@@ -2804,7 +3360,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="102" ht="17.5" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>268</v>
       </c>
@@ -2818,7 +3374,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="103" ht="17.5" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>270</v>
       </c>
@@ -2832,7 +3388,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="104" ht="17.5" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>273</v>
       </c>
@@ -2846,7 +3402,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="105" ht="17.5" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>275</v>
       </c>
@@ -2860,7 +3416,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="106" ht="17.5" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>278</v>
       </c>
@@ -2874,7 +3430,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="107" ht="17.5" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>280</v>
       </c>
@@ -2888,7 +3444,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="108" ht="17.5" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>283</v>
       </c>
@@ -2902,7 +3458,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="109" ht="17.5" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>286</v>
       </c>
@@ -2916,7 +3472,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="110" ht="17.5" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>288</v>
       </c>
@@ -2930,7 +3486,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="111" ht="17.5" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>291</v>
       </c>
@@ -2944,7 +3500,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="112" ht="17.5" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>294</v>
       </c>
@@ -2958,7 +3514,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="113" ht="17.5" spans="1:6">
       <c r="A113" s="1" t="s">
         <v>295</v>
       </c>
@@ -2972,7 +3528,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="114" ht="17.5" spans="1:6">
       <c r="A114" s="1" t="s">
         <v>297</v>
       </c>
@@ -2986,7 +3542,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="115" ht="17.5" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>299</v>
       </c>
@@ -3000,7 +3556,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="116" ht="17.5" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>301</v>
       </c>
@@ -3014,7 +3570,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="117" ht="17.5" spans="1:6">
       <c r="A117" s="1" t="s">
         <v>301</v>
       </c>
@@ -3028,7 +3584,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="118" ht="17.5" spans="1:6">
       <c r="A118" s="1" t="s">
         <v>303</v>
       </c>
@@ -3042,7 +3598,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="119" ht="17.5" spans="1:6">
       <c r="A119" s="1" t="s">
         <v>305</v>
       </c>
@@ -3056,7 +3612,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="120" ht="17.5" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>308</v>
       </c>
@@ -3070,7 +3626,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="121" ht="17.5" spans="1:6">
       <c r="A121" s="1" t="s">
         <v>311</v>
       </c>
@@ -3084,7 +3640,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="122" ht="17.5" spans="1:6">
       <c r="A122" s="1" t="s">
         <v>313</v>
       </c>
@@ -3098,7 +3654,7 @@
       <c r="E122" s="1"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="123" ht="17.5" spans="1:6">
       <c r="A123" s="1" t="s">
         <v>314</v>
       </c>
@@ -3112,7 +3668,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="124" ht="17.5" spans="1:6">
       <c r="A124" s="1" t="s">
         <v>314</v>
       </c>
@@ -3126,7 +3682,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="125" ht="17.5" spans="1:6">
       <c r="A125" s="1" t="s">
         <v>317</v>
       </c>
@@ -3140,7 +3696,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="126" ht="17.5" spans="1:6">
       <c r="A126" s="1" t="s">
         <v>319</v>
       </c>
@@ -3154,7 +3710,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="127" ht="17.5" spans="1:6">
       <c r="A127" s="1" t="s">
         <v>320</v>
       </c>
@@ -3168,7 +3724,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="128" ht="17.5" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>322</v>
       </c>
@@ -3181,5 +3737,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>